--- a/analysis_nuc_cyto.xlsx
+++ b/analysis_nuc_cyto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="16600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="16840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pathway_analysis.txt" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="863">
   <si>
     <t>KEGG_Primary_class</t>
   </si>
@@ -2731,7 +2731,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2776,6 +2776,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2799,7 +2803,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="48">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2821,6 +2825,8 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2842,6 +2848,8 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="39" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -12518,8 +12526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21263,12 +21271,20 @@
       <c r="E206" s="14" t="s">
         <v>861</v>
       </c>
+      <c r="G206" t="s">
+        <v>841</v>
+      </c>
+      <c r="H206" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="207" spans="1:13" ht="18">
       <c r="A207" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B207" s="3"/>
+      <c r="B207">
+        <v>70</v>
+      </c>
       <c r="C207" s="3">
         <f>COUNTIF($A$2:$A$16,A207)</f>
         <v>2</v>
@@ -21281,12 +21297,20 @@
         <f>D207+C207</f>
         <v>45</v>
       </c>
+      <c r="G207" t="s">
+        <v>28</v>
+      </c>
+      <c r="H207">
+        <v>70</v>
+      </c>
     </row>
     <row r="208" spans="1:13" ht="18">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B208" s="3"/>
+      <c r="B208">
+        <v>71</v>
+      </c>
       <c r="C208" s="3">
         <f t="shared" ref="C208:C212" si="0">COUNTIF($A$2:$A$16,A208)</f>
         <v>4</v>
@@ -21299,12 +21323,20 @@
         <f t="shared" ref="E208:E212" si="1">D208+C208</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="18">
+      <c r="G208" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="18">
       <c r="A209" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B209" s="3"/>
+      <c r="B209">
+        <v>83</v>
+      </c>
       <c r="C209" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -21317,12 +21349,20 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="18">
+      <c r="G209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="18">
       <c r="A210" t="s">
         <v>86</v>
       </c>
-      <c r="B210" s="3"/>
+      <c r="B210">
+        <v>28</v>
+      </c>
       <c r="C210" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -21335,12 +21375,20 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="18">
+      <c r="G210" t="s">
+        <v>86</v>
+      </c>
+      <c r="H210">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="18">
       <c r="A211" t="s">
         <v>22</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211">
+        <v>22</v>
+      </c>
       <c r="C211" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -21353,12 +21401,20 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="18">
+      <c r="G211" t="s">
+        <v>22</v>
+      </c>
+      <c r="H211">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="18">
       <c r="A212" t="s">
         <v>157</v>
       </c>
-      <c r="B212" s="3"/>
+      <c r="B212">
+        <v>15</v>
+      </c>
       <c r="C212" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -21371,18 +21427,30 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="18">
+      <c r="G212" t="s">
+        <v>157</v>
+      </c>
+      <c r="H212">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="18">
       <c r="B213" s="3"/>
       <c r="D213"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>844</v>
       </c>
       <c r="D214"/>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="G214" t="s">
+        <v>844</v>
+      </c>
+      <c r="H214">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="B215" s="14" t="s">
         <v>857</v>
       </c>
@@ -21393,7 +21461,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
         <v>845</v>
       </c>
@@ -21409,12 +21477,20 @@
       <c r="E216" s="14" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="18">
+      <c r="G216" t="s">
+        <v>845</v>
+      </c>
+      <c r="H216" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="18">
       <c r="A217" t="s">
         <v>87</v>
       </c>
-      <c r="B217" s="3"/>
+      <c r="B217">
+        <v>23</v>
+      </c>
       <c r="C217" s="3">
         <f>COUNTIF($B$2:$B$16,A217)</f>
         <v>1</v>
@@ -21427,12 +21503,20 @@
         <f>D217+C217</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="18">
+      <c r="G217" t="s">
+        <v>87</v>
+      </c>
+      <c r="H217">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="18">
       <c r="A218" t="s">
         <v>53</v>
       </c>
-      <c r="B218" s="3"/>
+      <c r="B218">
+        <v>23</v>
+      </c>
       <c r="C218" s="3">
         <f t="shared" ref="C218:C252" si="3">COUNTIF($B$2:$B$16,A218)</f>
         <v>3</v>
@@ -21445,12 +21529,20 @@
         <f t="shared" ref="E218:E252" si="5">D218+C218</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="18">
+      <c r="G218" t="s">
+        <v>53</v>
+      </c>
+      <c r="H218">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="18">
       <c r="A219" t="s">
         <v>11</v>
       </c>
-      <c r="B219" s="3"/>
+      <c r="B219">
+        <v>22</v>
+      </c>
       <c r="C219" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21463,12 +21555,20 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="18">
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="18">
       <c r="A220" t="s">
         <v>29</v>
       </c>
-      <c r="B220" s="3"/>
+      <c r="B220">
+        <v>18</v>
+      </c>
       <c r="C220" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21481,12 +21581,20 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="18">
+      <c r="G220" t="s">
+        <v>29</v>
+      </c>
+      <c r="H220">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="18">
       <c r="A221" t="s">
         <v>39</v>
       </c>
-      <c r="B221" s="3"/>
+      <c r="B221">
+        <v>16</v>
+      </c>
       <c r="C221" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -21499,12 +21607,20 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="18">
+      <c r="G221" t="s">
+        <v>39</v>
+      </c>
+      <c r="H221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="18">
       <c r="A222" t="s">
         <v>44</v>
       </c>
-      <c r="B222" s="3"/>
+      <c r="B222">
+        <v>14</v>
+      </c>
       <c r="C222" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21517,12 +21633,20 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="18">
+      <c r="G222" t="s">
+        <v>44</v>
+      </c>
+      <c r="H222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="18">
       <c r="A223" t="s">
         <v>17</v>
       </c>
-      <c r="B223" s="3"/>
+      <c r="B223">
+        <v>14</v>
+      </c>
       <c r="C223" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21535,12 +21659,20 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="18">
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="18">
       <c r="A224" t="s">
         <v>252</v>
       </c>
-      <c r="B224" s="3"/>
+      <c r="B224">
+        <v>10</v>
+      </c>
       <c r="C224" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21553,12 +21685,20 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="18">
+      <c r="G224" t="s">
+        <v>252</v>
+      </c>
+      <c r="H224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="18">
       <c r="A225" t="s">
         <v>34</v>
       </c>
-      <c r="B225" s="3"/>
+      <c r="B225">
+        <v>9</v>
+      </c>
       <c r="C225" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21571,12 +21711,20 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="18">
+      <c r="G225" t="s">
+        <v>34</v>
+      </c>
+      <c r="H225">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="18">
       <c r="A226" t="s">
         <v>229</v>
       </c>
-      <c r="B226" s="3"/>
+      <c r="B226">
+        <v>15</v>
+      </c>
       <c r="C226" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21589,12 +21737,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="18">
+      <c r="G226" t="s">
+        <v>229</v>
+      </c>
+      <c r="H226">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="18">
       <c r="A227" t="s">
         <v>197</v>
       </c>
-      <c r="B227" s="3"/>
+      <c r="B227">
+        <v>12</v>
+      </c>
       <c r="C227" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -21607,12 +21763,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="18">
+      <c r="G227" t="s">
+        <v>197</v>
+      </c>
+      <c r="H227">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="18">
       <c r="A228" t="s">
         <v>23</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228">
+        <v>7</v>
+      </c>
       <c r="C228" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21625,12 +21789,20 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="18">
+      <c r="G228" t="s">
+        <v>23</v>
+      </c>
+      <c r="H228">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="18">
       <c r="A229" t="s">
         <v>398</v>
       </c>
-      <c r="B229" s="3"/>
+      <c r="B229">
+        <v>7</v>
+      </c>
       <c r="C229" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -21643,12 +21815,20 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="18">
+      <c r="G229" t="s">
+        <v>398</v>
+      </c>
+      <c r="H229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="18">
       <c r="A230" t="s">
         <v>462</v>
       </c>
-      <c r="B230" s="3"/>
+      <c r="B230">
+        <v>5</v>
+      </c>
       <c r="C230" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21661,12 +21841,20 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="18">
+      <c r="G230" t="s">
+        <v>462</v>
+      </c>
+      <c r="H230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="18">
       <c r="A231" t="s">
         <v>234</v>
       </c>
-      <c r="B231" s="3"/>
+      <c r="B231">
+        <v>5</v>
+      </c>
       <c r="C231" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21679,12 +21867,20 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="18">
+      <c r="G231" t="s">
+        <v>234</v>
+      </c>
+      <c r="H231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="18">
       <c r="A232" t="s">
         <v>158</v>
       </c>
-      <c r="B232" s="3"/>
+      <c r="B232">
+        <v>5</v>
+      </c>
       <c r="C232" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -21697,12 +21893,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="18">
+      <c r="G232" t="s">
+        <v>158</v>
+      </c>
+      <c r="H232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="18">
       <c r="A233" t="s">
         <v>72</v>
       </c>
-      <c r="B233" s="3"/>
+      <c r="B233">
+        <v>5</v>
+      </c>
       <c r="C233" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21715,12 +21919,20 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="18">
+      <c r="G233" t="s">
+        <v>72</v>
+      </c>
+      <c r="H233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="18">
       <c r="A234" t="s">
         <v>163</v>
       </c>
-      <c r="B234" s="3"/>
+      <c r="B234">
+        <v>12</v>
+      </c>
       <c r="C234" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21733,12 +21945,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="18">
+      <c r="G234" t="s">
+        <v>163</v>
+      </c>
+      <c r="H234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="18">
       <c r="A235" t="s">
         <v>316</v>
       </c>
-      <c r="B235" s="3"/>
+      <c r="B235">
+        <v>8</v>
+      </c>
       <c r="C235" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -21751,12 +21971,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="18">
+      <c r="G235" t="s">
+        <v>316</v>
+      </c>
+      <c r="H235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="18">
       <c r="A236" t="s">
         <v>239</v>
       </c>
-      <c r="B236" s="3"/>
+      <c r="B236">
+        <v>4</v>
+      </c>
       <c r="C236" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21769,12 +21997,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="18">
+      <c r="G236" t="s">
+        <v>239</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="18">
       <c r="A237" t="s">
         <v>81</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237">
+        <v>5</v>
+      </c>
       <c r="C237" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21787,12 +22023,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="18">
+      <c r="G237" t="s">
+        <v>81</v>
+      </c>
+      <c r="H237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="18">
       <c r="A238" t="s">
         <v>58</v>
       </c>
-      <c r="B238" s="3"/>
+      <c r="B238">
+        <v>4</v>
+      </c>
       <c r="C238" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21805,12 +22049,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="18">
+      <c r="G238" t="s">
+        <v>58</v>
+      </c>
+      <c r="H238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="18">
       <c r="A239" t="s">
         <v>608</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239">
+        <v>4</v>
+      </c>
       <c r="C239" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21823,12 +22075,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="18">
+      <c r="G239" t="s">
+        <v>608</v>
+      </c>
+      <c r="H239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="18">
       <c r="A240" t="s">
         <v>180</v>
       </c>
-      <c r="B240" s="3"/>
+      <c r="B240">
+        <v>4</v>
+      </c>
       <c r="C240" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21841,12 +22101,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="18">
+      <c r="G240" t="s">
+        <v>180</v>
+      </c>
+      <c r="H240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="18">
       <c r="A241" t="s">
         <v>537</v>
       </c>
-      <c r="B241" s="3"/>
+      <c r="B241">
+        <v>5</v>
+      </c>
       <c r="C241" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21859,12 +22127,20 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="18">
+      <c r="G241" t="s">
+        <v>537</v>
+      </c>
+      <c r="H241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="18">
       <c r="A242" t="s">
         <v>257</v>
       </c>
-      <c r="B242" s="3"/>
+      <c r="B242">
+        <v>4</v>
+      </c>
       <c r="C242" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -21877,12 +22153,20 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="18">
+      <c r="G242" t="s">
+        <v>257</v>
+      </c>
+      <c r="H242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="18">
       <c r="A243" t="s">
         <v>96</v>
       </c>
-      <c r="B243" s="3"/>
+      <c r="B243">
+        <v>6</v>
+      </c>
       <c r="C243" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -21895,12 +22179,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="18">
+      <c r="G243" t="s">
+        <v>96</v>
+      </c>
+      <c r="H243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="18">
       <c r="A244" t="s">
         <v>328</v>
       </c>
-      <c r="B244" s="3"/>
+      <c r="B244">
+        <v>3</v>
+      </c>
       <c r="C244" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21913,12 +22205,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="18">
+      <c r="G244" t="s">
+        <v>328</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="18">
       <c r="A245" t="s">
         <v>345</v>
       </c>
-      <c r="B245" s="3"/>
+      <c r="B245">
+        <v>3</v>
+      </c>
       <c r="C245" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21931,12 +22231,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="18">
+      <c r="G245" t="s">
+        <v>345</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="18">
       <c r="A246" t="s">
         <v>472</v>
       </c>
-      <c r="B246" s="3"/>
+      <c r="B246">
+        <v>3</v>
+      </c>
       <c r="C246" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21949,12 +22257,20 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="18">
+      <c r="G246" t="s">
+        <v>472</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="18">
       <c r="A247" t="s">
         <v>128</v>
       </c>
-      <c r="B247" s="3"/>
+      <c r="B247">
+        <v>3</v>
+      </c>
       <c r="C247" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21967,12 +22283,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="18">
+      <c r="G247" t="s">
+        <v>128</v>
+      </c>
+      <c r="H247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="18">
       <c r="A248" t="s">
         <v>67</v>
       </c>
-      <c r="B248" s="3"/>
+      <c r="B248">
+        <v>3</v>
+      </c>
       <c r="C248" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21985,12 +22309,20 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="18">
+      <c r="G248" t="s">
+        <v>67</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="18">
       <c r="A249" t="s">
         <v>467</v>
       </c>
-      <c r="B249" s="3"/>
+      <c r="B249">
+        <v>2</v>
+      </c>
       <c r="C249" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22003,12 +22335,20 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="18">
+      <c r="G249" t="s">
+        <v>467</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="18">
       <c r="A250" t="s">
         <v>411</v>
       </c>
-      <c r="B250" s="3"/>
+      <c r="B250">
+        <v>2</v>
+      </c>
       <c r="C250" s="3">
         <f>COUNTIF($B$2:$B$16,A250)</f>
         <v>1</v>
@@ -22021,12 +22361,20 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="18">
+      <c r="G250" t="s">
+        <v>411</v>
+      </c>
+      <c r="H250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="18">
       <c r="A251" t="s">
         <v>784</v>
       </c>
-      <c r="B251" s="3"/>
+      <c r="B251">
+        <v>1</v>
+      </c>
       <c r="C251" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22039,12 +22387,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="18">
+      <c r="G251" t="s">
+        <v>784</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="18">
       <c r="A252" t="s">
         <v>797</v>
       </c>
-      <c r="B252" s="3"/>
+      <c r="B252">
+        <v>1</v>
+      </c>
       <c r="C252" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -22057,8 +22413,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="G252" t="s">
+        <v>797</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>862</v>
       </c>
